--- a/target/classes/TestData/UiTestData/TestData.xlsx
+++ b/target/classes/TestData/UiTestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
   <si>
     <t>Test Case Name</t>
   </si>

--- a/target/classes/TestData/UiTestData/TestData.xlsx
+++ b/target/classes/TestData/UiTestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -111,9 +111,6 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>akm</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>SmokeTest</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>RegistrationTest</t>
   </si>
   <si>
@@ -153,6 +147,9 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>ProductSelectionTest</t>
+  </si>
+  <si>
     <t>signInTest</t>
   </si>
   <si>
@@ -297,17 +294,13 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>ProductTest</t>
+    <t>RemoteIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -563,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,6 +564,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -716,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -778,6 +773,8 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1670,25 +1667,25 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.83203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="29.1640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.1640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" customHeight="1">
@@ -1737,7 +1734,7 @@
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
@@ -1745,14 +1742,14 @@
       <c r="C2" s="6">
         <v>718756</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
+      <c r="D2" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>89</v>
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
@@ -1776,12 +1773,12 @@
         <v>24</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -1789,11 +1786,11 @@
       <c r="C3" s="6">
         <v>718756</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>18</v>
@@ -1820,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1">
@@ -1833,26 +1830,26 @@
       <c r="C4" s="6">
         <v>718756</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>21</v>
@@ -1863,13 +1860,11 @@
       <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -1877,26 +1872,26 @@
       <c r="C5" s="6">
         <v>718756</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
+      <c r="D5" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>21</v>
@@ -1908,12 +1903,12 @@
         <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1921,26 +1916,26 @@
       <c r="C6" s="6">
         <v>718756</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
+      <c r="D6" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>21</v>
@@ -1951,13 +1946,11 @@
       <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
@@ -1965,26 +1958,26 @@
       <c r="C7" s="6">
         <v>718756</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
+      <c r="D7" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>21</v>
@@ -1999,7 +1992,7 @@
     </row>
     <row r="8" spans="1:14" ht="20" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -2007,26 +2000,26 @@
       <c r="C8" s="6">
         <v>718756</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
+      <c r="D8" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>21</v>
@@ -2041,7 +2034,7 @@
     </row>
     <row r="9" spans="1:14" ht="20" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -2049,26 +2042,26 @@
       <c r="C9" s="6">
         <v>718756</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
+      <c r="D9" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>21</v>
@@ -2083,7 +2076,7 @@
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -2091,26 +2084,26 @@
       <c r="C10" s="6">
         <v>718756</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
+      <c r="D10" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>21</v>
@@ -2634,7 +2627,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2690,54 +2683,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="20">
       <c r="A2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="20">
       <c r="A3" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -2745,10 +2738,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -2757,7 +2750,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -2766,7 +2759,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="26"/>
     </row>
@@ -2775,7 +2768,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="26"/>
     </row>
@@ -2827,36 +2820,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32" customHeight="1">
       <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>13</v>
@@ -2867,21 +2860,21 @@
         <v>26</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1">
@@ -2889,19 +2882,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
@@ -2909,23 +2902,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1">
@@ -2933,25 +2926,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>68</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" customHeight="1">
@@ -2959,25 +2952,25 @@
         <v>26</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>71</v>
-      </c>
       <c r="F6" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23" customHeight="1">
@@ -2985,23 +2978,23 @@
         <v>26</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1">
@@ -3009,19 +3002,19 @@
         <v>26</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -3029,23 +3022,23 @@
         <v>26</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>79</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23" customHeight="1">
@@ -3053,19 +3046,19 @@
         <v>26</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">

--- a/target/classes/TestData/UiTestData/TestData.xlsx
+++ b/target/classes/TestData/UiTestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="90">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -156,9 +156,6 @@
     <t>BrowserTest</t>
   </si>
   <si>
-    <t>Product1Test</t>
-  </si>
-  <si>
     <t>accountButtonVerification</t>
   </si>
   <si>
@@ -294,13 +291,20 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>RemoteIE</t>
+    <t>Pass On Initial Test</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>ProductTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -556,7 +560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -564,6 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -711,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -775,6 +780,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1667,25 +1673,25 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.1640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="29.1640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" customHeight="1">
@@ -1773,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1">
@@ -1860,7 +1866,9 @@
       <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -2034,7 +2042,7 @@
     </row>
     <row r="9" spans="1:14" ht="20" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -2072,11 +2080,13 @@
       <c r="M9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -2627,7 +2637,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2671,6 @@
     <hyperlink ref="M10" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId28"/>
   </tableParts>
@@ -2683,54 +2692,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20">
       <c r="A1" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>84</v>
       </c>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="20">
       <c r="A2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="20">
       <c r="A3" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -2738,10 +2747,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -2750,7 +2759,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -2759,7 +2768,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="26"/>
     </row>
@@ -2768,7 +2777,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="26"/>
     </row>
@@ -2820,36 +2829,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32" customHeight="1">
       <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>13</v>
@@ -2860,21 +2869,21 @@
         <v>26</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1">
@@ -2882,19 +2891,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
@@ -2902,23 +2911,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1">
@@ -2926,25 +2935,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" customHeight="1">
@@ -2952,25 +2961,25 @@
         <v>26</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="F6" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23" customHeight="1">
@@ -2978,23 +2987,23 @@
         <v>26</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1">
@@ -3002,19 +3011,19 @@
         <v>26</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -3022,23 +3031,23 @@
         <v>26</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>78</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23" customHeight="1">
@@ -3046,19 +3055,19 @@
         <v>26</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8">

--- a/target/classes/TestData/UiTestData/TestData.xlsx
+++ b/target/classes/TestData/UiTestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Ruby</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>ProductSelectionTest</t>
   </si>
   <si>
@@ -294,10 +291,16 @@
     <t>Pass On Initial Test</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>ProductTest</t>
+  </si>
+  <si>
+    <t>PHANTOMJS</t>
+  </si>
+  <si>
+    <t>Fail On Initial Test</t>
+  </si>
+  <si>
+    <t>chromeRemote</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -568,6 +571,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -716,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -781,6 +787,9 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1673,7 +1682,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1779,7 +1788,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1">
@@ -1793,7 +1802,7 @@
         <v>718756</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>34</v>
@@ -1823,7 +1832,7 @@
         <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1">
@@ -1867,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1">
@@ -1911,12 +1920,12 @@
         <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1958,7 +1967,7 @@
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
@@ -2000,7 +2009,7 @@
     </row>
     <row r="8" spans="1:14" ht="20" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -2042,7 +2051,7 @@
     </row>
     <row r="9" spans="1:14" ht="20" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -2081,12 +2090,12 @@
         <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -2637,7 +2646,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2700,46 +2709,46 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20">
       <c r="A1" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="20">
       <c r="A2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="20">
       <c r="A3" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -2747,10 +2756,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -2759,7 +2768,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -2768,7 +2777,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="26"/>
     </row>
@@ -2777,7 +2786,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="26"/>
     </row>
@@ -2840,25 +2849,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32" customHeight="1">
       <c r="A1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>13</v>
@@ -2869,21 +2878,21 @@
         <v>26</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1">
@@ -2891,19 +2900,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
@@ -2911,23 +2920,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1">
@@ -2935,25 +2944,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" customHeight="1">
@@ -2961,25 +2970,25 @@
         <v>26</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="F6" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23" customHeight="1">
@@ -2987,23 +2996,23 @@
         <v>26</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>72</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1">
@@ -3011,19 +3020,19 @@
         <v>26</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -3031,23 +3040,23 @@
         <v>26</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23" customHeight="1">
@@ -3055,19 +3064,19 @@
         <v>26</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
